--- a/resources/experiment 1/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
+++ b/resources/experiment 1/metrics/MAPE/upto time/Microalbuminuria (UPTO).xlsx
@@ -465,10 +465,10 @@
         <v>5504813121739528</v>
       </c>
       <c r="C2" t="n">
-        <v>5504813121739528</v>
+        <v>5504813121739529</v>
       </c>
       <c r="D2" t="n">
-        <v>5504813121739528</v>
+        <v>5504813121739529</v>
       </c>
     </row>
     <row r="3">
@@ -478,45 +478,45 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>6707211089897.671</v>
+        <v>4740948609203.721</v>
       </c>
       <c r="C3" t="n">
-        <v>6678607914221.694</v>
+        <v>23747053742538.62</v>
       </c>
       <c r="D3" t="n">
-        <v>6678607914221.694</v>
+        <v>19268821053017.39</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>GradientBoostingRegressor</t>
+          <t>DecisionTreeRegressor</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>31911628337524.77</v>
+        <v>4391195768686.856</v>
       </c>
       <c r="C4" t="n">
-        <v>31911628337524.77</v>
+        <v>4626125326713.485</v>
       </c>
       <c r="D4" t="n">
-        <v>31911628337524.77</v>
+        <v>4625735725456.395</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>AdaBoostRegressor</t>
+          <t>MLPRegressor</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>69632844463128.84</v>
+        <v>180292811073679.2</v>
       </c>
       <c r="C5" t="n">
-        <v>69632844463128.84</v>
+        <v>182141081921002.4</v>
       </c>
       <c r="D5" t="n">
-        <v>69632844463128.84</v>
+        <v>253657987019571</v>
       </c>
     </row>
   </sheetData>
